--- a/exp_result/d1_count_sysucloud.xlsx
+++ b/exp_result/d1_count_sysucloud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26360" windowHeight="13220"/>
+    <workbookView windowWidth="26360" windowHeight="13220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="d2E" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
   <si>
     <t>dataset: d2E</t>
   </si>
@@ -150,15 +150,6 @@
     <t>7mins, 36sec</t>
   </si>
   <si>
-    <t>4mins, 51sec</t>
-  </si>
-  <si>
-    <t>2hrs, 15mins, 57sec</t>
-  </si>
-  <si>
-    <t>8mins, 39sec</t>
-  </si>
-  <si>
     <t>topdcube_text-mr1</t>
   </si>
   <si>
@@ -187,6 +178,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="0"/>
+        <rFont val="FreeSerif"/>
+        <charset val="134"/>
+      </rPr>
       <t> </t>
     </r>
     <r>
@@ -278,31 +275,28 @@
     <t>mr3</t>
   </si>
   <si>
-    <t>tscubeba-20-mr2</t>
+    <t>tscubeba-200-mr2</t>
   </si>
   <si>
-    <t>tscubeba-40-mr2</t>
+    <t>tscubeba-100-mr2</t>
   </si>
   <si>
     <t>tscubeba-60-mr2</t>
   </si>
   <si>
-    <t>4mins, 33sec</t>
+    <t>5mins, 30sec</t>
   </si>
   <si>
-    <t>1hrs, 47mins, 6sec</t>
+    <t>1hrs, 7mins, 44sec</t>
   </si>
   <si>
-    <t>7mins, 30sec</t>
+    <t>5mins, 44sec</t>
   </si>
   <si>
-    <t>tscubeba-80-mr2</t>
+    <t>5mins, 43sec</t>
   </si>
   <si>
-    <t>tscubeba-100-mr2</t>
-  </si>
-  <si>
-    <t>tscubeba-200-mr2</t>
+    <t>1hrs, 3mins, 51sec</t>
   </si>
   <si>
     <t>topdcube_text_nocombier-mr1</t>
@@ -512,43 +506,7 @@
     <t>1hrs, 1mins, 13sec</t>
   </si>
   <si>
-    <t>2hrs, 11mins, 3sec</t>
-  </si>
-  <si>
-    <t>50mins, 26sec</t>
-  </si>
-  <si>
-    <t>50mins, 2sec</t>
-  </si>
-  <si>
-    <t>49mins, 59sec</t>
-  </si>
-  <si>
-    <t>50mins, 0sec</t>
-  </si>
-  <si>
-    <t>50mins, 30sec</t>
-  </si>
-  <si>
-    <t>50mins, 3sec</t>
-  </si>
-  <si>
-    <t>50mins, 18sec</t>
-  </si>
-  <si>
-    <t>54mins, 31sec</t>
-  </si>
-  <si>
-    <t>50mins, 11sec</t>
-  </si>
-  <si>
-    <t>50mins, 5sec</t>
-  </si>
-  <si>
-    <t>50mins, 15sec</t>
-  </si>
-  <si>
-    <t>49mins, 57sec</t>
+    <t>total running time_200</t>
   </si>
   <si>
     <t>topdcube_noreducer</t>
@@ -686,6 +644,15 @@
     <t>1mins, 57sec</t>
   </si>
   <si>
+    <t>tscubeba-20-mr2</t>
+  </si>
+  <si>
+    <t>tscubeba-40-mr2</t>
+  </si>
+  <si>
+    <t>tscubeba-80-mr2</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -703,9 +670,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="8">
@@ -929,10 +896,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="A2:IV49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3198,15 +3165,9 @@
       <c r="E15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>40</v>
-      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
@@ -3971,22 +3932,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -4246,19 +4207,19 @@
         <v>28</v>
       </c>
       <c r="C19" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="G19" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -4512,7 +4473,7 @@
     </row>
     <row r="20" customFormat="1" ht="21" customHeight="1" spans="1:256">
       <c r="A20" s="1"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4773,22 +4734,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
@@ -5045,22 +5006,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="F22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>53</v>
+      <c r="G22" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -5314,7 +5275,7 @@
     </row>
     <row r="23" customFormat="1" ht="21" customHeight="1" spans="1:256">
       <c r="A23" s="1"/>
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5575,22 +5536,22 @@
         <v>26</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -5847,22 +5808,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="F25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="G25" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>61</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -6116,7 +6077,7 @@
     </row>
     <row r="26" customFormat="1" ht="21" customHeight="1" spans="1:256">
       <c r="A26" s="1"/>
-      <c r="B26" s="29"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6377,22 +6338,22 @@
         <v>33</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -6649,22 +6610,22 @@
         <v>11</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="F28" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="G28" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>67</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -6918,35 +6879,35 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="21.6" customHeight="1" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="21" customHeight="1" spans="1:10">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="21" customHeight="1" spans="1:10">
@@ -7017,7 +6978,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>10</v>
@@ -7026,7 +6987,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>10</v>
@@ -7035,7 +6996,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>10</v>
@@ -7045,18 +7006,24 @@
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="F40" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
+      <c r="G40" s="29" t="s">
+        <v>79</v>
+      </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
@@ -7072,7 +7039,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>10</v>
@@ -7081,7 +7048,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>10</v>
@@ -7090,7 +7057,7 @@
         <v>8</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>10</v>
@@ -7115,22 +7082,22 @@
         <v>33</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="19.5" spans="1:7">
@@ -7138,22 +7105,22 @@
         <v>11</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7168,8 +7135,8 @@
   <sheetPr/>
   <dimension ref="A1:IV95"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7695,18 +7662,18 @@
     <row r="4" s="1" customFormat="1"/>
     <row r="5" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A5" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -7958,21 +7925,21 @@
     <row r="6" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>11</v>
@@ -7981,25 +7948,25 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" s="23">
         <v>117403030</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="24">
+        <v>92</v>
+      </c>
+      <c r="F7" s="23">
         <v>13804237</v>
       </c>
       <c r="G7" s="23"/>
       <c r="I7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="24">
+        <v>92</v>
+      </c>
+      <c r="J7" s="23">
         <v>9439343</v>
       </c>
       <c r="K7" s="23"/>
@@ -8007,25 +7974,25 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A8" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" s="23">
         <v>132105174</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="24">
+        <v>94</v>
+      </c>
+      <c r="F8" s="23">
         <v>13861370</v>
       </c>
       <c r="G8" s="23"/>
       <c r="I8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="24">
+        <v>94</v>
+      </c>
+      <c r="J8" s="23">
         <v>9571099</v>
       </c>
       <c r="K8" s="23"/>
@@ -8033,25 +8000,25 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A9" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C9" s="23">
         <v>119371430</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="24">
+        <v>96</v>
+      </c>
+      <c r="F9" s="23">
         <v>13797761</v>
       </c>
       <c r="G9" s="23"/>
       <c r="I9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="24">
+        <v>96</v>
+      </c>
+      <c r="J9" s="23">
         <v>9530609</v>
       </c>
       <c r="K9" s="23"/>
@@ -8059,25 +8026,25 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A10" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C10" s="23">
         <v>150517684</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="24">
+        <v>98</v>
+      </c>
+      <c r="F10" s="23">
         <v>13808397</v>
       </c>
       <c r="G10" s="23"/>
       <c r="I10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="24">
+        <v>98</v>
+      </c>
+      <c r="J10" s="23">
         <v>9656154</v>
       </c>
       <c r="K10" s="23"/>
@@ -8085,25 +8052,25 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A11" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C11" s="23">
         <v>115808006</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="24">
+        <v>100</v>
+      </c>
+      <c r="F11" s="23">
         <v>13744302</v>
       </c>
       <c r="G11" s="23"/>
       <c r="I11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="24">
+        <v>100</v>
+      </c>
+      <c r="J11" s="23">
         <v>9526919</v>
       </c>
       <c r="K11" s="23"/>
@@ -8111,25 +8078,25 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A12" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C12" s="23">
         <v>430004094</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="24">
+        <v>102</v>
+      </c>
+      <c r="F12" s="23">
         <v>13912169</v>
       </c>
       <c r="G12" s="23"/>
       <c r="I12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="24">
+        <v>102</v>
+      </c>
+      <c r="J12" s="23">
         <v>9530357</v>
       </c>
       <c r="K12" s="23"/>
@@ -8137,25 +8104,25 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A13" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C13" s="23">
         <v>164085186</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="24">
+        <v>104</v>
+      </c>
+      <c r="F13" s="23">
         <v>13742022</v>
       </c>
       <c r="G13" s="23"/>
       <c r="I13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="24">
+        <v>104</v>
+      </c>
+      <c r="J13" s="23">
         <v>9527834</v>
       </c>
       <c r="K13" s="23"/>
@@ -8163,25 +8130,25 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A14" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C14" s="23">
         <v>108173701</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="24">
+        <v>106</v>
+      </c>
+      <c r="F14" s="23">
         <v>13796112</v>
       </c>
       <c r="G14" s="23"/>
       <c r="I14" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" s="24">
+        <v>106</v>
+      </c>
+      <c r="J14" s="23">
         <v>9870615</v>
       </c>
       <c r="K14" s="23"/>
@@ -8189,25 +8156,25 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A15" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C15" s="23">
         <v>171332727</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="24">
+        <v>108</v>
+      </c>
+      <c r="F15" s="23">
         <v>13857526</v>
       </c>
       <c r="G15" s="23"/>
       <c r="I15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="24">
+        <v>108</v>
+      </c>
+      <c r="J15" s="23">
         <v>12963576</v>
       </c>
       <c r="K15" s="23"/>
@@ -8215,25 +8182,25 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A16" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C16" s="23">
         <v>105166370</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="24">
+        <v>110</v>
+      </c>
+      <c r="F16" s="23">
         <v>13798650</v>
       </c>
       <c r="G16" s="23"/>
       <c r="I16" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="24">
+        <v>110</v>
+      </c>
+      <c r="J16" s="23">
         <v>10261779</v>
       </c>
       <c r="K16" s="23"/>
@@ -8241,25 +8208,25 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A17" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="23">
         <v>931231263</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="24">
+        <v>112</v>
+      </c>
+      <c r="F17" s="23">
         <v>13812212</v>
       </c>
       <c r="G17" s="23"/>
       <c r="I17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="24">
+        <v>112</v>
+      </c>
+      <c r="J17" s="23">
         <v>13003500</v>
       </c>
       <c r="K17" s="23"/>
@@ -8267,25 +8234,25 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A18" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C18" s="23">
         <v>156696803</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="24">
+        <v>114</v>
+      </c>
+      <c r="F18" s="23">
         <v>13800638</v>
       </c>
       <c r="G18" s="23"/>
       <c r="I18" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="24">
+        <v>114</v>
+      </c>
+      <c r="J18" s="23">
         <v>12631245</v>
       </c>
       <c r="K18" s="23"/>
@@ -8293,25 +8260,25 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A19" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" s="23">
         <v>120800034</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="24">
+        <v>116</v>
+      </c>
+      <c r="F19" s="23">
         <v>13860271</v>
       </c>
       <c r="G19" s="23"/>
       <c r="I19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J19" s="24">
+        <v>116</v>
+      </c>
+      <c r="J19" s="23">
         <v>12813436</v>
       </c>
       <c r="K19" s="23"/>
@@ -8319,25 +8286,25 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A20" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C20" s="23">
         <v>254916020</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="24">
+        <v>118</v>
+      </c>
+      <c r="F20" s="23">
         <v>13801620</v>
       </c>
       <c r="G20" s="23"/>
       <c r="I20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="24">
+        <v>118</v>
+      </c>
+      <c r="J20" s="23">
         <v>16358360</v>
       </c>
       <c r="K20" s="23"/>
@@ -8345,25 +8312,25 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A21" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C21" s="23">
         <v>130335974</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="24">
+        <v>120</v>
+      </c>
+      <c r="F21" s="23">
         <v>13867859</v>
       </c>
       <c r="G21" s="23"/>
       <c r="I21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" s="24">
+        <v>120</v>
+      </c>
+      <c r="J21" s="23">
         <v>12811269</v>
       </c>
       <c r="K21" s="23"/>
@@ -8371,25 +8338,25 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A22" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C22" s="23">
         <v>149153603</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="24">
+        <v>122</v>
+      </c>
+      <c r="F22" s="23">
         <v>13855957</v>
       </c>
       <c r="G22" s="23"/>
       <c r="I22" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" s="24">
+        <v>122</v>
+      </c>
+      <c r="J22" s="23">
         <v>12812507</v>
       </c>
       <c r="K22" s="23"/>
@@ -8397,25 +8364,25 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A23" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C23" s="23">
         <v>330569485</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="24">
+        <v>124</v>
+      </c>
+      <c r="F23" s="23">
         <v>13813977</v>
       </c>
       <c r="G23" s="23"/>
       <c r="I23" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="24">
+        <v>124</v>
+      </c>
+      <c r="J23" s="23">
         <v>12815806</v>
       </c>
       <c r="K23" s="23"/>
@@ -8423,25 +8390,25 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A24" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C24" s="23">
         <v>173549523</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="24">
+        <v>126</v>
+      </c>
+      <c r="F24" s="23">
         <v>13871943</v>
       </c>
       <c r="G24" s="23"/>
       <c r="I24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="24">
+        <v>126</v>
+      </c>
+      <c r="J24" s="23">
         <v>13072914</v>
       </c>
       <c r="K24" s="23"/>
@@ -8449,25 +8416,25 @@
     </row>
     <row r="25" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A25" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C25" s="23">
         <v>118619802</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="24">
+        <v>128</v>
+      </c>
+      <c r="F25" s="23">
         <v>13861198</v>
       </c>
       <c r="G25" s="23"/>
       <c r="I25" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="24">
+        <v>128</v>
+      </c>
+      <c r="J25" s="23">
         <v>9350164</v>
       </c>
       <c r="K25" s="23"/>
@@ -8475,25 +8442,25 @@
     </row>
     <row r="26" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A26" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="23">
         <v>182464377</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="24">
+        <v>130</v>
+      </c>
+      <c r="F26" s="23">
         <v>13865520</v>
       </c>
       <c r="G26" s="23"/>
       <c r="I26" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="24">
+        <v>130</v>
+      </c>
+      <c r="J26" s="23">
         <v>13330957</v>
       </c>
       <c r="K26" s="23"/>
@@ -8502,7 +8469,7 @@
     <row r="27" s="1" customFormat="1"/>
     <row r="28" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8758,7 +8725,7 @@
     <row r="29" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>11</v>
@@ -9014,10 +8981,10 @@
     </row>
     <row r="30" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A30" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C30" s="23">
         <v>28917561</v>
@@ -9273,10 +9240,10 @@
     </row>
     <row r="31" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A31" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C31" s="23">
         <v>24651101</v>
@@ -9532,10 +9499,10 @@
     </row>
     <row r="32" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A32" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C32" s="23">
         <v>25633727</v>
@@ -9791,10 +9758,10 @@
     </row>
     <row r="33" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A33" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C33" s="23">
         <v>25767455</v>
@@ -10050,10 +10017,10 @@
     </row>
     <row r="34" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A34" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C34" s="23">
         <v>24771075</v>
@@ -10309,10 +10276,10 @@
     </row>
     <row r="35" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A35" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C35" s="23">
         <v>24497315</v>
@@ -10568,10 +10535,10 @@
     </row>
     <row r="36" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A36" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C36" s="23">
         <v>24363076</v>
@@ -10827,10 +10794,10 @@
     </row>
     <row r="37" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A37" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C37" s="23">
         <v>27294842</v>
@@ -11086,10 +11053,10 @@
     </row>
     <row r="38" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A38" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C38" s="23">
         <v>22893271</v>
@@ -11345,10 +11312,10 @@
     </row>
     <row r="39" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A39" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C39" s="23">
         <v>26041770</v>
@@ -11604,10 +11571,10 @@
     </row>
     <row r="40" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A40" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C40" s="23">
         <v>22346992</v>
@@ -11863,10 +11830,10 @@
     </row>
     <row r="41" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A41" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C41" s="23">
         <v>26520528</v>
@@ -12122,10 +12089,10 @@
     </row>
     <row r="42" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A42" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C42" s="23">
         <v>24812430</v>
@@ -12381,10 +12348,10 @@
     </row>
     <row r="43" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A43" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C43" s="23">
         <v>24790264</v>
@@ -12640,10 +12607,10 @@
     </row>
     <row r="44" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A44" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C44" s="23">
         <v>25996884</v>
@@ -12899,10 +12866,10 @@
     </row>
     <row r="45" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A45" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C45" s="23">
         <v>24635522</v>
@@ -13158,10 +13125,10 @@
     </row>
     <row r="46" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A46" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C46" s="23">
         <v>27066959</v>
@@ -13417,10 +13384,10 @@
     </row>
     <row r="47" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A47" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C47" s="23">
         <v>23890226</v>
@@ -13676,10 +13643,10 @@
     </row>
     <row r="48" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A48" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C48" s="23">
         <v>28001308</v>
@@ -13935,10 +13902,10 @@
     </row>
     <row r="49" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A49" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C49" s="23">
         <v>25240392</v>
@@ -14195,7 +14162,7 @@
     <row r="50" s="1" customFormat="1"/>
     <row r="51" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A51" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -14451,10 +14418,13 @@
     <row r="52" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A52" s="12"/>
       <c r="B52" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>11</v>
+        <v>151</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -14707,13 +14677,14 @@
     </row>
     <row r="53" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A53" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="23">
-        <v>199616047</v>
+        <v>92</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="24">
+        <v>22260418</v>
+      </c>
+      <c r="D53" s="24">
+        <v>39038377</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -14966,13 +14937,14 @@
     </row>
     <row r="54" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A54" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="23">
-        <v>947142</v>
+        <v>94</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="24">
+        <v>20049103</v>
+      </c>
+      <c r="D54" s="24">
+        <v>37925113</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -15225,13 +15197,14 @@
     </row>
     <row r="55" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A55" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="15">
-        <v>75</v>
+        <v>96</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="24">
+        <v>19608500</v>
+      </c>
+      <c r="D55" s="24">
+        <v>39595296</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -15484,13 +15457,14 @@
     </row>
     <row r="56" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A56" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="15">
-        <v>75</v>
+        <v>98</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="24">
+        <v>20694080</v>
+      </c>
+      <c r="D56" s="24">
+        <v>38619995</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -15743,13 +15717,14 @@
     </row>
     <row r="57" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A57" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="15">
-        <v>75</v>
+        <v>100</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="24">
+        <v>20047045</v>
+      </c>
+      <c r="D57" s="24">
+        <v>38687006</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -16002,13 +15977,14 @@
     </row>
     <row r="58" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A58" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="23">
-        <v>3010969</v>
+        <v>102</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="24">
+        <v>19827687</v>
+      </c>
+      <c r="D58" s="24">
+        <v>5899703</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -16261,13 +16237,14 @@
     </row>
     <row r="59" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A59" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="15">
-        <v>73</v>
+        <v>104</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="24">
+        <v>22210445</v>
+      </c>
+      <c r="D59" s="24">
+        <v>4669029</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -16520,13 +16497,14 @@
     </row>
     <row r="60" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A60" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="15">
-        <v>77</v>
+        <v>106</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="24">
+        <v>22290963</v>
+      </c>
+      <c r="D60" s="24">
+        <v>5720375</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -16779,13 +16757,14 @@
     </row>
     <row r="61" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A61" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="15">
-        <v>74</v>
+        <v>108</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="24">
+        <v>20451094</v>
+      </c>
+      <c r="D61" s="24">
+        <v>6299688</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -17038,13 +17017,14 @@
     </row>
     <row r="62" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A62" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="23">
-        <v>2349303</v>
+        <v>110</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="24">
+        <v>20989720</v>
+      </c>
+      <c r="D62" s="24">
+        <v>6341468</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -17297,13 +17277,14 @@
     </row>
     <row r="63" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A63" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" s="23">
-        <v>30486167</v>
+        <v>112</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="24">
+        <v>5308717</v>
+      </c>
+      <c r="D63" s="24">
+        <v>5100901</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -17556,13 +17537,14 @@
     </row>
     <row r="64" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A64" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="23">
-        <v>748175</v>
+        <v>114</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="24">
+        <v>3047232</v>
+      </c>
+      <c r="D64" s="24">
+        <v>5012232</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -17815,13 +17797,14 @@
     </row>
     <row r="65" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A65" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65" s="15">
-        <v>75</v>
+        <v>116</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="24">
+        <v>5441675</v>
+      </c>
+      <c r="D65" s="24">
+        <v>6071618</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -18074,13 +18057,14 @@
     </row>
     <row r="66" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A66" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="15">
-        <v>75</v>
+        <v>118</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="24">
+        <v>4407165</v>
+      </c>
+      <c r="D66" s="24">
+        <v>5581989</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -18333,13 +18317,14 @@
     </row>
     <row r="67" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A67" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="15">
-        <v>75</v>
+        <v>120</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="24">
+        <v>4775800</v>
+      </c>
+      <c r="D67" s="24">
+        <v>5258002</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -18592,13 +18577,14 @@
     </row>
     <row r="68" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A68" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="23">
-        <v>1701256</v>
+        <v>122</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="24">
+        <v>342998</v>
+      </c>
+      <c r="D68" s="24">
+        <v>4078106</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -18851,13 +18837,14 @@
     </row>
     <row r="69" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A69" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="23">
-        <v>284871</v>
+        <v>124</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="24">
+        <v>224706</v>
+      </c>
+      <c r="D69" s="24">
+        <v>4985894</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -19110,13 +19097,14 @@
     </row>
     <row r="70" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A70" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="15">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="24">
+        <v>43650</v>
+      </c>
+      <c r="D70" s="24">
+        <v>5584480</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -19369,13 +19357,14 @@
     </row>
     <row r="71" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A71" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" s="15">
-        <v>75</v>
+        <v>128</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="24">
+        <v>441162</v>
+      </c>
+      <c r="D71" s="24">
+        <v>333085</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -19628,13 +19617,14 @@
     </row>
     <row r="72" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A72" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="15">
-        <v>75</v>
+        <v>130</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="24">
+        <v>177879</v>
+      </c>
+      <c r="D72" s="24">
+        <v>356378</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -19888,7 +19878,7 @@
     <row r="73" s="1" customFormat="1"/>
     <row r="74" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A74" s="11" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -20144,7 +20134,7 @@
     <row r="75" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A75" s="13"/>
       <c r="B75" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>11</v>
@@ -20400,10 +20390,10 @@
     </row>
     <row r="76" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A76" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C76" s="23">
         <v>40396637</v>
@@ -20659,10 +20649,10 @@
     </row>
     <row r="77" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A77" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C77" s="23">
         <v>40303647</v>
@@ -20918,10 +20908,10 @@
     </row>
     <row r="78" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A78" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C78" s="23">
         <v>40326338</v>
@@ -21177,10 +21167,10 @@
     </row>
     <row r="79" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A79" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C79" s="23">
         <v>838590424</v>
@@ -21436,10 +21426,10 @@
     </row>
     <row r="80" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A80" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C80" s="23">
         <v>40249148</v>
@@ -21695,10 +21685,10 @@
     </row>
     <row r="81" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A81" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C81" s="23">
         <v>40273856</v>
@@ -21954,10 +21944,10 @@
     </row>
     <row r="82" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A82" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C82" s="23">
         <v>40215011</v>
@@ -22213,10 +22203,10 @@
     </row>
     <row r="83" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A83" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C83" s="23">
         <v>40274962</v>
@@ -22472,10 +22462,10 @@
     </row>
     <row r="84" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A84" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C84" s="23">
         <v>40253522</v>
@@ -22731,10 +22721,10 @@
     </row>
     <row r="85" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A85" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C85" s="23">
         <v>838624273</v>
@@ -22990,10 +22980,10 @@
     </row>
     <row r="86" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A86" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C86" s="23">
         <v>40299441</v>
@@ -23249,10 +23239,10 @@
     </row>
     <row r="87" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A87" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C87" s="23">
         <v>40370397</v>
@@ -23508,10 +23498,10 @@
     </row>
     <row r="88" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A88" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C88" s="23">
         <v>838634725</v>
@@ -23767,10 +23757,10 @@
     </row>
     <row r="89" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A89" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C89" s="23">
         <v>40403548</v>
@@ -24026,10 +24016,10 @@
     </row>
     <row r="90" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A90" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C90" s="23">
         <v>40429323</v>
@@ -24285,10 +24275,10 @@
     </row>
     <row r="91" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A91" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C91" s="23">
         <v>40399228</v>
@@ -24544,10 +24534,10 @@
     </row>
     <row r="92" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A92" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C92" s="23">
         <v>40467358</v>
@@ -24803,10 +24793,10 @@
     </row>
     <row r="93" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A93" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C93" s="23">
         <v>838698227</v>
@@ -25062,10 +25052,10 @@
     </row>
     <row r="94" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A94" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C94" s="23">
         <v>40432709</v>
@@ -25321,10 +25311,10 @@
     </row>
     <row r="95" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A95" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C95" s="23">
         <v>40357226</v>
@@ -26413,13 +26403,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>23</v>
@@ -26428,10 +26418,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -27201,25 +27191,25 @@
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -27989,25 +27979,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -28777,16 +28767,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -29555,22 +29545,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -29830,10 +29820,9 @@
         <v>25</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="17"/>
@@ -30091,7 +30080,6 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="17"/>
@@ -30349,22 +30337,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -30621,13 +30609,12 @@
         <v>11</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="17"/>
@@ -30885,7 +30872,6 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="17"/>
@@ -31143,22 +31129,22 @@
         <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -31415,13 +31401,12 @@
         <v>11</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="17"/>
@@ -31679,7 +31664,6 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="17"/>
@@ -31937,22 +31921,22 @@
         <v>33</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -32211,7 +32195,6 @@
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
       <c r="D28" s="13"/>
-      <c r="E28"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="17"/>
@@ -32724,35 +32707,35 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="21.6" customHeight="1" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="21" customHeight="1" spans="1:10">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="21" customHeight="1" spans="1:10">
@@ -33597,7 +33580,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>10</v>
@@ -33606,7 +33589,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>10</v>
@@ -33615,7 +33598,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>10</v>
@@ -34162,7 +34145,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>10</v>
@@ -34171,7 +34154,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>10</v>
@@ -34180,7 +34163,7 @@
         <v>8</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>10</v>
@@ -34460,7 +34443,7 @@
     </row>
     <row r="47" customFormat="1" spans="1:256">
       <c r="A47" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -34723,22 +34706,22 @@
         <v>33</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="19.5" spans="1:7">
@@ -35291,12 +35274,12 @@
     <row r="4" s="1" customFormat="1"/>
     <row r="5" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -35552,14 +35535,14 @@
     <row r="6" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>11</v>
@@ -35568,12 +35551,12 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="E7" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
@@ -35581,12 +35564,12 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A8" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="8"/>
       <c r="E8" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
@@ -35594,12 +35577,12 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A9" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
       <c r="E9" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
@@ -35607,12 +35590,12 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A10" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
       <c r="E10" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
@@ -35620,12 +35603,12 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A11" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
       <c r="E11" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="8"/>
@@ -35633,12 +35616,12 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A12" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="E12" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="8"/>
@@ -35646,12 +35629,12 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A13" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="E13" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
@@ -35659,12 +35642,12 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A14" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
       <c r="E14" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
@@ -35672,12 +35655,12 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A15" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="E15" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
@@ -35685,12 +35668,12 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A16" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
       <c r="E16" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
@@ -35698,12 +35681,12 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A17" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
       <c r="E17" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
@@ -35711,12 +35694,12 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A18" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
       <c r="E18" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="8"/>
@@ -35724,12 +35707,12 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A19" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
       <c r="E19" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="8"/>
@@ -35737,12 +35720,12 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A20" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
       <c r="E20" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="8"/>
@@ -35750,12 +35733,12 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A21" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
       <c r="E21" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="8"/>
@@ -35763,12 +35746,12 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A22" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
       <c r="E22" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="8"/>
@@ -35776,12 +35759,12 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A23" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
       <c r="E23" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="8"/>
@@ -35789,12 +35772,12 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A24" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
       <c r="E24" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="8"/>
@@ -35802,12 +35785,12 @@
     </row>
     <row r="25" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A25" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
       <c r="E25" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="8"/>
@@ -35815,12 +35798,12 @@
     </row>
     <row r="26" s="2" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A26" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
       <c r="E26" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="8"/>
@@ -35829,7 +35812,7 @@
     <row r="27" s="1" customFormat="1"/>
     <row r="28" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -36085,7 +36068,7 @@
     <row r="29" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>11</v>
@@ -36341,7 +36324,7 @@
     </row>
     <row r="30" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A30" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
@@ -36596,7 +36579,7 @@
     </row>
     <row r="31" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A31" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -36851,7 +36834,7 @@
     </row>
     <row r="32" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A32" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="8"/>
@@ -37106,7 +37089,7 @@
     </row>
     <row r="33" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A33" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="8"/>
@@ -37361,7 +37344,7 @@
     </row>
     <row r="34" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A34" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="8"/>
@@ -37616,7 +37599,7 @@
     </row>
     <row r="35" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A35" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="8"/>
@@ -37871,7 +37854,7 @@
     </row>
     <row r="36" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A36" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="8"/>
@@ -38126,7 +38109,7 @@
     </row>
     <row r="37" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A37" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="8"/>
@@ -38381,7 +38364,7 @@
     </row>
     <row r="38" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A38" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="8"/>
@@ -38636,7 +38619,7 @@
     </row>
     <row r="39" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A39" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="8"/>
@@ -38891,7 +38874,7 @@
     </row>
     <row r="40" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A40" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="8"/>
@@ -39146,7 +39129,7 @@
     </row>
     <row r="41" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A41" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="8"/>
@@ -39401,7 +39384,7 @@
     </row>
     <row r="42" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A42" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
@@ -39656,7 +39639,7 @@
     </row>
     <row r="43" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A43" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
@@ -39911,7 +39894,7 @@
     </row>
     <row r="44" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A44" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
@@ -40166,7 +40149,7 @@
     </row>
     <row r="45" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A45" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
@@ -40421,7 +40404,7 @@
     </row>
     <row r="46" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A46" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
@@ -40676,7 +40659,7 @@
     </row>
     <row r="47" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A47" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
@@ -40931,7 +40914,7 @@
     </row>
     <row r="48" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A48" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
@@ -41186,7 +41169,7 @@
     </row>
     <row r="49" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A49" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
@@ -41442,7 +41425,7 @@
     <row r="50" s="1" customFormat="1"/>
     <row r="51" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A51" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -41698,7 +41681,7 @@
     <row r="52" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A52" s="12"/>
       <c r="B52" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>11</v>
@@ -41954,7 +41937,7 @@
     </row>
     <row r="53" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A53" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="8"/>
@@ -42209,7 +42192,7 @@
     </row>
     <row r="54" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A54" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="8"/>
@@ -42464,7 +42447,7 @@
     </row>
     <row r="55" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A55" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="8"/>
@@ -42719,7 +42702,7 @@
     </row>
     <row r="56" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A56" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="8"/>
@@ -42974,7 +42957,7 @@
     </row>
     <row r="57" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A57" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="8"/>
@@ -43229,7 +43212,7 @@
     </row>
     <row r="58" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A58" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="8"/>
@@ -43484,7 +43467,7 @@
     </row>
     <row r="59" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A59" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="8"/>
@@ -43739,7 +43722,7 @@
     </row>
     <row r="60" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A60" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="8"/>
@@ -43994,7 +43977,7 @@
     </row>
     <row r="61" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A61" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="8"/>
@@ -44249,7 +44232,7 @@
     </row>
     <row r="62" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A62" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="8"/>
@@ -44504,7 +44487,7 @@
     </row>
     <row r="63" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A63" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="8"/>
@@ -44759,7 +44742,7 @@
     </row>
     <row r="64" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A64" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="8"/>
@@ -45014,7 +44997,7 @@
     </row>
     <row r="65" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A65" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="8"/>
@@ -45269,7 +45252,7 @@
     </row>
     <row r="66" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A66" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="8"/>
@@ -45524,7 +45507,7 @@
     </row>
     <row r="67" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A67" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="8"/>
@@ -45779,7 +45762,7 @@
     </row>
     <row r="68" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A68" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="8"/>
@@ -46034,7 +46017,7 @@
     </row>
     <row r="69" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A69" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="8"/>
@@ -46289,7 +46272,7 @@
     </row>
     <row r="70" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A70" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="8"/>
@@ -46544,7 +46527,7 @@
     </row>
     <row r="71" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A71" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
@@ -46799,7 +46782,7 @@
     </row>
     <row r="72" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A72" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
@@ -47055,7 +47038,7 @@
     <row r="73" s="1" customFormat="1"/>
     <row r="74" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A74" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -47311,7 +47294,7 @@
     <row r="75" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A75" s="13"/>
       <c r="B75" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>11</v>
@@ -47567,7 +47550,7 @@
     </row>
     <row r="76" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A76" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="8"/>
@@ -47822,7 +47805,7 @@
     </row>
     <row r="77" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A77" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="8"/>
@@ -48077,7 +48060,7 @@
     </row>
     <row r="78" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A78" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="8"/>
@@ -48332,7 +48315,7 @@
     </row>
     <row r="79" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A79" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="8"/>
@@ -48587,7 +48570,7 @@
     </row>
     <row r="80" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A80" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="8"/>
@@ -48842,7 +48825,7 @@
     </row>
     <row r="81" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A81" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="8"/>
@@ -49097,7 +49080,7 @@
     </row>
     <row r="82" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A82" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="8"/>
@@ -49352,7 +49335,7 @@
     </row>
     <row r="83" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A83" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="8"/>
@@ -49607,7 +49590,7 @@
     </row>
     <row r="84" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A84" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="8"/>
@@ -49862,7 +49845,7 @@
     </row>
     <row r="85" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A85" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="8"/>
@@ -50117,7 +50100,7 @@
     </row>
     <row r="86" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A86" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="8"/>
@@ -50372,7 +50355,7 @@
     </row>
     <row r="87" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A87" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="8"/>
@@ -50627,7 +50610,7 @@
     </row>
     <row r="88" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A88" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="8"/>
@@ -50882,7 +50865,7 @@
     </row>
     <row r="89" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A89" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="8"/>
@@ -51137,7 +51120,7 @@
     </row>
     <row r="90" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A90" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="8"/>
@@ -51392,7 +51375,7 @@
     </row>
     <row r="91" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A91" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="8"/>
@@ -51647,7 +51630,7 @@
     </row>
     <row r="92" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A92" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="8"/>
@@ -51902,7 +51885,7 @@
     </row>
     <row r="93" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A93" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
@@ -52157,7 +52140,7 @@
     </row>
     <row r="94" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A94" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="8"/>
@@ -52412,7 +52395,7 @@
     </row>
     <row r="95" customFormat="1" ht="27" customHeight="1" spans="1:256">
       <c r="A95" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="8"/>

--- a/exp_result/d1_count_sysucloud.xlsx
+++ b/exp_result/d1_count_sysucloud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26360" windowHeight="13220" activeTab="1"/>
+    <workbookView windowWidth="26360" windowHeight="13220"/>
   </bookViews>
   <sheets>
     <sheet name="d2E" sheetId="1" r:id="rId1"/>
@@ -670,9 +670,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="8">
@@ -811,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,9 +884,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -897,9 +894,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1247,8 +1241,8 @@
   <sheetPr/>
   <dimension ref="A2:IV49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1545,25 +1539,25 @@
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="O6" s="22"/>
@@ -2081,25 +2075,25 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>25</v>
       </c>
       <c r="O9" s="22"/>
@@ -2617,25 +2611,25 @@
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="O12" s="22"/>
@@ -3153,21 +3147,21 @@
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
@@ -3931,7 +3925,7 @@
       <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -4203,10 +4197,10 @@
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -4473,7 +4467,7 @@
     </row>
     <row r="20" customFormat="1" ht="21" customHeight="1" spans="1:256">
       <c r="A20" s="1"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4733,7 +4727,7 @@
       <c r="A21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -5005,10 +4999,10 @@
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -5275,7 +5269,7 @@
     </row>
     <row r="23" customFormat="1" ht="21" customHeight="1" spans="1:256">
       <c r="A23" s="1"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5535,7 +5529,7 @@
       <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -5807,10 +5801,10 @@
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="15" t="s">
@@ -6077,7 +6071,7 @@
     </row>
     <row r="26" customFormat="1" ht="21" customHeight="1" spans="1:256">
       <c r="A26" s="1"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6337,7 +6331,7 @@
       <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -6609,10 +6603,10 @@
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="15" t="s">
@@ -7006,22 +7000,22 @@
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="15" t="s">
         <v>79</v>
       </c>
       <c r="H40" s="19"/>
@@ -7104,22 +7098,22 @@
       <c r="A49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7135,7 +7129,7 @@
   <sheetPr/>
   <dimension ref="A1:IV95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -14680,10 +14674,10 @@
         <v>92</v>
       </c>
       <c r="B53" s="15"/>
-      <c r="C53" s="24">
+      <c r="C53" s="23">
         <v>22260418</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="23">
         <v>39038377</v>
       </c>
       <c r="H53" s="2"/>
@@ -14940,10 +14934,10 @@
         <v>94</v>
       </c>
       <c r="B54" s="15"/>
-      <c r="C54" s="24">
+      <c r="C54" s="23">
         <v>20049103</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="23">
         <v>37925113</v>
       </c>
       <c r="H54" s="2"/>
@@ -15200,10 +15194,10 @@
         <v>96</v>
       </c>
       <c r="B55" s="15"/>
-      <c r="C55" s="24">
+      <c r="C55" s="23">
         <v>19608500</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="23">
         <v>39595296</v>
       </c>
       <c r="H55" s="2"/>
@@ -15460,10 +15454,10 @@
         <v>98</v>
       </c>
       <c r="B56" s="15"/>
-      <c r="C56" s="24">
+      <c r="C56" s="23">
         <v>20694080</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="23">
         <v>38619995</v>
       </c>
       <c r="H56" s="2"/>
@@ -15720,10 +15714,10 @@
         <v>100</v>
       </c>
       <c r="B57" s="15"/>
-      <c r="C57" s="24">
+      <c r="C57" s="23">
         <v>20047045</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="23">
         <v>38687006</v>
       </c>
       <c r="H57" s="2"/>
@@ -15980,10 +15974,10 @@
         <v>102</v>
       </c>
       <c r="B58" s="15"/>
-      <c r="C58" s="24">
+      <c r="C58" s="23">
         <v>19827687</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="23">
         <v>5899703</v>
       </c>
       <c r="H58" s="2"/>
@@ -16240,10 +16234,10 @@
         <v>104</v>
       </c>
       <c r="B59" s="15"/>
-      <c r="C59" s="24">
+      <c r="C59" s="23">
         <v>22210445</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="23">
         <v>4669029</v>
       </c>
       <c r="H59" s="2"/>
@@ -16500,10 +16494,10 @@
         <v>106</v>
       </c>
       <c r="B60" s="15"/>
-      <c r="C60" s="24">
+      <c r="C60" s="23">
         <v>22290963</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="23">
         <v>5720375</v>
       </c>
       <c r="H60" s="2"/>
@@ -16760,10 +16754,10 @@
         <v>108</v>
       </c>
       <c r="B61" s="15"/>
-      <c r="C61" s="24">
+      <c r="C61" s="23">
         <v>20451094</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="23">
         <v>6299688</v>
       </c>
       <c r="H61" s="2"/>
@@ -17020,10 +17014,10 @@
         <v>110</v>
       </c>
       <c r="B62" s="15"/>
-      <c r="C62" s="24">
+      <c r="C62" s="23">
         <v>20989720</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="23">
         <v>6341468</v>
       </c>
       <c r="H62" s="2"/>
@@ -17280,10 +17274,10 @@
         <v>112</v>
       </c>
       <c r="B63" s="15"/>
-      <c r="C63" s="24">
+      <c r="C63" s="23">
         <v>5308717</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="23">
         <v>5100901</v>
       </c>
       <c r="H63" s="2"/>
@@ -17540,10 +17534,10 @@
         <v>114</v>
       </c>
       <c r="B64" s="15"/>
-      <c r="C64" s="24">
+      <c r="C64" s="23">
         <v>3047232</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D64" s="23">
         <v>5012232</v>
       </c>
       <c r="H64" s="2"/>
@@ -17800,10 +17794,10 @@
         <v>116</v>
       </c>
       <c r="B65" s="15"/>
-      <c r="C65" s="24">
+      <c r="C65" s="23">
         <v>5441675</v>
       </c>
-      <c r="D65" s="24">
+      <c r="D65" s="23">
         <v>6071618</v>
       </c>
       <c r="H65" s="2"/>
@@ -18060,10 +18054,10 @@
         <v>118</v>
       </c>
       <c r="B66" s="15"/>
-      <c r="C66" s="24">
+      <c r="C66" s="23">
         <v>4407165</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D66" s="23">
         <v>5581989</v>
       </c>
       <c r="H66" s="2"/>
@@ -18320,10 +18314,10 @@
         <v>120</v>
       </c>
       <c r="B67" s="15"/>
-      <c r="C67" s="24">
+      <c r="C67" s="23">
         <v>4775800</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="23">
         <v>5258002</v>
       </c>
       <c r="H67" s="2"/>
@@ -18580,10 +18574,10 @@
         <v>122</v>
       </c>
       <c r="B68" s="15"/>
-      <c r="C68" s="24">
+      <c r="C68" s="23">
         <v>342998</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D68" s="23">
         <v>4078106</v>
       </c>
       <c r="H68" s="2"/>
@@ -18840,10 +18834,10 @@
         <v>124</v>
       </c>
       <c r="B69" s="15"/>
-      <c r="C69" s="24">
+      <c r="C69" s="23">
         <v>224706</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D69" s="23">
         <v>4985894</v>
       </c>
       <c r="H69" s="2"/>
@@ -19100,10 +19094,10 @@
         <v>126</v>
       </c>
       <c r="B70" s="15"/>
-      <c r="C70" s="24">
+      <c r="C70" s="23">
         <v>43650</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="23">
         <v>5584480</v>
       </c>
       <c r="H70" s="2"/>
@@ -19360,10 +19354,10 @@
         <v>128</v>
       </c>
       <c r="B71" s="15"/>
-      <c r="C71" s="24">
+      <c r="C71" s="23">
         <v>441162</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="23">
         <v>333085</v>
       </c>
       <c r="H71" s="2"/>
@@ -19620,10 +19614,10 @@
         <v>130</v>
       </c>
       <c r="B72" s="15"/>
-      <c r="C72" s="24">
+      <c r="C72" s="23">
         <v>177879</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="23">
         <v>356378</v>
       </c>
       <c r="H72" s="2"/>

--- a/exp_result/d1_count_sysucloud.xlsx
+++ b/exp_result/d1_count_sysucloud.xlsx
@@ -670,9 +670,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="8">
@@ -1241,8 +1241,8 @@
   <sheetPr/>
   <dimension ref="A2:IV49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
